--- a/data/trans_orig/P6710-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>28663</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20055</v>
+        <v>19864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39223</v>
+        <v>39849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2311991399952082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1617654127714814</v>
+        <v>0.1602281422022273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.316382391842582</v>
+        <v>0.3214293256057862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>22105</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15343</v>
+        <v>14529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31934</v>
+        <v>31268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2591374857957451</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1798668372274781</v>
+        <v>0.1703286664502313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.374363884330808</v>
+        <v>0.366556715164989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -784,19 +784,19 @@
         <v>50767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38798</v>
+        <v>38634</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63752</v>
+        <v>65182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2425868423269728</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1853919352483402</v>
+        <v>0.1846092554704235</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3046310750291277</v>
+        <v>0.3114665896714558</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3189</v>
+        <v>3075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14381</v>
+        <v>13916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05835976454884278</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02572141354216517</v>
+        <v>0.02480280810238625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1160008784239595</v>
+        <v>0.1122520372439574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7699</v>
+        <v>6742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02531702963207596</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0902555081927939</v>
+        <v>0.07903591017322437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -855,19 +855,19 @@
         <v>9395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5030</v>
+        <v>4269</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17605</v>
+        <v>16848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04489150726024152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02403329663731858</v>
+        <v>0.02040114693313305</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08412412874998894</v>
+        <v>0.08050673895404678</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>19968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12339</v>
+        <v>11944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30892</v>
+        <v>29509</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1610686760978368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09952529675674331</v>
+        <v>0.09634019883155759</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.249183319602058</v>
+        <v>0.2380220641265978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -905,19 +905,19 @@
         <v>11383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6226</v>
+        <v>6186</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19849</v>
+        <v>19446</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.133450183580159</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07298744995140317</v>
+        <v>0.07252539574751159</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.232691036284631</v>
+        <v>0.2279733791543695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -926,19 +926,19 @@
         <v>31352</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20085</v>
+        <v>20713</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>42925</v>
+        <v>44215</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1498113463371988</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09597208715602552</v>
+        <v>0.09897566538034792</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2051138814899271</v>
+        <v>0.2112769182933157</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>6339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2469</v>
+        <v>2359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12963</v>
+        <v>12992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05113039301099562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01991260266610789</v>
+        <v>0.01902873546953622</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.104558581120496</v>
+        <v>0.1047998314907719</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -976,19 +976,19 @@
         <v>8694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3238</v>
+        <v>3252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16734</v>
+        <v>15876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1019270750576427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03795675779019304</v>
+        <v>0.03812029464522374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1961794146255864</v>
+        <v>0.1861146705909218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -997,19 +997,19 @@
         <v>15033</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7385</v>
+        <v>8405</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24825</v>
+        <v>24453</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07183517985551199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03528932624051231</v>
+        <v>0.04016456205060284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1186229104780118</v>
+        <v>0.1168457203175431</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>61769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50085</v>
+        <v>50450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72294</v>
+        <v>72364</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4982420263471166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4039946866831622</v>
+        <v>0.4069366203446015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5831356542655275</v>
+        <v>0.5837006866905202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -1047,19 +1047,19 @@
         <v>40959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32253</v>
+        <v>31851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50480</v>
+        <v>51141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4801682259343771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3781126832941042</v>
+        <v>0.3733907089809607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5917911733540306</v>
+        <v>0.599536670394386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -1068,19 +1068,19 @@
         <v>102728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>86848</v>
+        <v>87789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>117483</v>
+        <v>118763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4908751242200749</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.414995814256602</v>
+        <v>0.4194896549799432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5613826619527381</v>
+        <v>0.567499635518948</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>13523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8068</v>
+        <v>7811</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21391</v>
+        <v>21917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07894706002556859</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04710229132724734</v>
+        <v>0.04559872976547077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.124880883419487</v>
+        <v>0.1279530006607063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1193,19 +1193,19 @@
         <v>11122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5841</v>
+        <v>5962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18702</v>
+        <v>18874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09215249250135032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04839838329814959</v>
+        <v>0.04940126525603797</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.154958633346806</v>
+        <v>0.1563802224071016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1214,19 +1214,19 @@
         <v>24645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16304</v>
+        <v>16690</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35292</v>
+        <v>35112</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08440555773231313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05583801186261388</v>
+        <v>0.05715948073713622</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1208704136373998</v>
+        <v>0.1202514397602012</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>13134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6676</v>
+        <v>6765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22316</v>
+        <v>21227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07667625196769637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03897469340894034</v>
+        <v>0.03949648746940456</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1302786280625173</v>
+        <v>0.1239214170300899</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1264,19 +1264,19 @@
         <v>19556</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11296</v>
+        <v>12258</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29520</v>
+        <v>29407</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1620294517865094</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09359313392187861</v>
+        <v>0.1015624592450201</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2445855151356927</v>
+        <v>0.2436525283150682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1285,19 +1285,19 @@
         <v>32690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21344</v>
+        <v>22333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45701</v>
+        <v>47555</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1119572051912082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07309784021112779</v>
+        <v>0.07648694100454337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.156516764024909</v>
+        <v>0.1628686523709342</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>31445</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22421</v>
+        <v>22882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43395</v>
+        <v>42246</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1835748412694412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1308932428215767</v>
+        <v>0.1335854308334878</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2533381325591206</v>
+        <v>0.2466313992131438</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1335,19 +1335,19 @@
         <v>15270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8510</v>
+        <v>9076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24056</v>
+        <v>24530</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1265217176317933</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07051023685856711</v>
+        <v>0.07520207047330511</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1993137817645924</v>
+        <v>0.2032415695641946</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1356,19 +1356,19 @@
         <v>46715</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34905</v>
+        <v>35232</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60269</v>
+        <v>59993</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1599917935267903</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1195424266829724</v>
+        <v>0.1206647235682768</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2064105962227707</v>
+        <v>0.2054658003011472</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>13831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7612</v>
+        <v>7248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23581</v>
+        <v>23470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08074222996001239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04443989457582404</v>
+        <v>0.04231295208887677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1376655363632523</v>
+        <v>0.1370152133204761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1406,19 +1406,19 @@
         <v>10283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5117</v>
+        <v>5145</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17047</v>
+        <v>17746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0851963718148505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04239774189761492</v>
+        <v>0.04262653518587135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1412442712446232</v>
+        <v>0.1470359415576993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1427,19 +1427,19 @@
         <v>24113</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15938</v>
+        <v>16061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36169</v>
+        <v>34599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08258336035424504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05458310550671529</v>
+        <v>0.05500671219297244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1238739479611727</v>
+        <v>0.1184938488701605</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>99360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>84668</v>
+        <v>86095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111966</v>
+        <v>113006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5800596167772815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4942873662086831</v>
+        <v>0.502619368217325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6536496285921356</v>
+        <v>0.6597247150469019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1477,19 +1477,19 @@
         <v>64462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53560</v>
+        <v>51421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75872</v>
+        <v>75189</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5340999662654965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4437700182236442</v>
+        <v>0.4260490524465173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6286358650857888</v>
+        <v>0.6229813246724853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1498,19 +1498,19 @@
         <v>163822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>144955</v>
+        <v>144950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181303</v>
+        <v>181437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5610620831954434</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4964448729621785</v>
+        <v>0.4964271992780062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6209297929859325</v>
+        <v>0.6213886133558033</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>12551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6845</v>
+        <v>7609</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19721</v>
+        <v>20293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08822037063474478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04811586097930003</v>
+        <v>0.05348689779395328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1386241394433486</v>
+        <v>0.1426404905621929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1623,19 +1623,19 @@
         <v>10836</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5183</v>
+        <v>5689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18166</v>
+        <v>18376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1331662716994554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06368708801863206</v>
+        <v>0.06990902908552223</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2232428069132429</v>
+        <v>0.2258209886015022</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1644,19 +1644,19 @@
         <v>23387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15640</v>
+        <v>14802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34329</v>
+        <v>33959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1045746064952179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06993527745426188</v>
+        <v>0.06618533049914996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1535029054046252</v>
+        <v>0.1518452680868831</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>14636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8451</v>
+        <v>8719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23776</v>
+        <v>23799</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1028750035382078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05940328504240412</v>
+        <v>0.06128405334493195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1671279967521743</v>
+        <v>0.1672895084330349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1694,19 +1694,19 @@
         <v>6449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2991</v>
+        <v>3000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13522</v>
+        <v>13306</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0792526193779389</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03675854166446759</v>
+        <v>0.036863819729949</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1661731515262792</v>
+        <v>0.1635095127375849</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1715,19 +1715,19 @@
         <v>21085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13515</v>
+        <v>13408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32341</v>
+        <v>31499</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09427964705425317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06043230142739724</v>
+        <v>0.0599525427681104</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.144611841926487</v>
+        <v>0.1408484296504272</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>36235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27280</v>
+        <v>26966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47243</v>
+        <v>46591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2546990251157466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1917559763735214</v>
+        <v>0.189550015454921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3320802233255961</v>
+        <v>0.327495085076417</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1765,19 +1765,19 @@
         <v>16735</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9909</v>
+        <v>9940</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24767</v>
+        <v>24664</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2056578522827553</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1217734225670354</v>
+        <v>0.1221508287585915</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3043507616608374</v>
+        <v>0.3030908042190983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -1786,19 +1786,19 @@
         <v>52970</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42640</v>
+        <v>39376</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66921</v>
+        <v>65181</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2368546635969899</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1906617867112653</v>
+        <v>0.1760675109449531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2992354236424235</v>
+        <v>0.2914548121511772</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>31154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22401</v>
+        <v>23205</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41873</v>
+        <v>42462</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2189843364414414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1574598891727282</v>
+        <v>0.1631085032957438</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2943342885177407</v>
+        <v>0.2984718823789671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1836,19 +1836,19 @@
         <v>13645</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7602</v>
+        <v>7416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21815</v>
+        <v>22105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1676761507148072</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0934133509547713</v>
+        <v>0.09112802151173638</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2680742644389552</v>
+        <v>0.2716441594068517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1857,19 +1857,19 @@
         <v>44798</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33942</v>
+        <v>34839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57987</v>
+        <v>57989</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2003150884996048</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1517687363888942</v>
+        <v>0.1557813804869625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2592879892977438</v>
+        <v>0.2592970811905246</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>47690</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37196</v>
+        <v>37494</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58265</v>
+        <v>60798</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3352212642698595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2614537598440383</v>
+        <v>0.2635526398220508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4095503216620017</v>
+        <v>0.4273576884451572</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1907,19 +1907,19 @@
         <v>33709</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24964</v>
+        <v>25068</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43710</v>
+        <v>42368</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4142471059250433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3067782456782667</v>
+        <v>0.3080578096704402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5371486584985317</v>
+        <v>0.5206534065506276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -1928,19 +1928,19 @@
         <v>81400</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69095</v>
+        <v>67612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97197</v>
+        <v>96507</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3639759943539342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.308956638994928</v>
+        <v>0.3023252583389868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4346128569943069</v>
+        <v>0.43152766089933</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>9473</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4395</v>
+        <v>4092</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18456</v>
+        <v>18727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06638744479415314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03080117669629907</v>
+        <v>0.02868054621725221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1293423789821859</v>
+        <v>0.1312450931165223</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2053,19 +2053,19 @@
         <v>8960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4224</v>
+        <v>3897</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16764</v>
+        <v>16388</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0874567768978687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0412294068183849</v>
+        <v>0.03804359002670114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.163634877332627</v>
+        <v>0.1599642858426465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2074,19 +2074,19 @@
         <v>18433</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10713</v>
+        <v>10399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28569</v>
+        <v>28752</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07519273505075041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04370126807159803</v>
+        <v>0.04242111782751358</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1165420092487734</v>
+        <v>0.1172909575738173</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>15858</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9668</v>
+        <v>8757</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26608</v>
+        <v>26055</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1111357513257615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06775404466531251</v>
+        <v>0.06137343771212944</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1864775328929852</v>
+        <v>0.1826018666829639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2124,19 +2124,19 @@
         <v>13089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7514</v>
+        <v>7326</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21304</v>
+        <v>21064</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1277612355391738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07334469532061197</v>
+        <v>0.07151169476531631</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2079504519334005</v>
+        <v>0.205609572218149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2145,19 +2145,19 @@
         <v>28947</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19364</v>
+        <v>18983</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>42006</v>
+        <v>40206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1180838697300347</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07899429879893526</v>
+        <v>0.07743840560377699</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.171355762939534</v>
+        <v>0.1640157176423516</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>36092</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27190</v>
+        <v>25836</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47537</v>
+        <v>47381</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2529452008014363</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1905569990178813</v>
+        <v>0.1810636017382614</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3331507886493548</v>
+        <v>0.3320610702652836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -2195,19 +2195,19 @@
         <v>23785</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16547</v>
+        <v>16210</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33474</v>
+        <v>33533</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2321632749059427</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.161517528422512</v>
+        <v>0.1582259428064111</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3267421212451581</v>
+        <v>0.3273146031062455</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2216,19 +2216,19 @@
         <v>59877</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47026</v>
+        <v>46705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>73939</v>
+        <v>74905</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2442600232789534</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1918359643136059</v>
+        <v>0.1905270553398783</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3016238120387656</v>
+        <v>0.3055640364849717</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>25823</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17808</v>
+        <v>17594</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36444</v>
+        <v>36445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.180974008800507</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1248046140281651</v>
+        <v>0.1233042877372791</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2554083503728493</v>
+        <v>0.2554167000844986</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2266,19 +2266,19 @@
         <v>20608</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13625</v>
+        <v>12734</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29203</v>
+        <v>29829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2011537274057089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1329931275653415</v>
+        <v>0.1242971289252178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2850487578824166</v>
+        <v>0.2911593996058066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -2287,19 +2287,19 @@
         <v>46431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35511</v>
+        <v>35112</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60707</v>
+        <v>59409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1894075119956047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1448629012163196</v>
+        <v>0.1432334830823913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.24764676540002</v>
+        <v>0.2423493482658345</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>55443</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43635</v>
+        <v>43781</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68401</v>
+        <v>67637</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3885575942781421</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3058063673025633</v>
+        <v>0.3068266461699773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4793693170542505</v>
+        <v>0.4740158163928567</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2337,19 +2337,19 @@
         <v>36007</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27163</v>
+        <v>27251</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47314</v>
+        <v>47194</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.351464985251306</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2651397370562384</v>
+        <v>0.266001700373284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4618327238384101</v>
+        <v>0.4606643326924652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -2358,19 +2358,19 @@
         <v>91450</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>76292</v>
+        <v>76824</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107721</v>
+        <v>107302</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3730558599446568</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3112200868555232</v>
+        <v>0.3133915557176871</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4394313802918054</v>
+        <v>0.4377222052632129</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>11980</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6388</v>
+        <v>6601</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20483</v>
+        <v>20028</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1455390742844394</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07761025056630562</v>
+        <v>0.08019752005158477</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2488366515229853</v>
+        <v>0.2433097223473285</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2483,19 +2483,19 @@
         <v>9666</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4224</v>
+        <v>4520</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16696</v>
+        <v>16536</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1765777625864353</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07716618986019547</v>
+        <v>0.08257625754182052</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3049867832009504</v>
+        <v>0.3020697900377899</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -2504,19 +2504,19 @@
         <v>21646</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13562</v>
+        <v>14512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31826</v>
+        <v>32080</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1579365094612274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0989509268396247</v>
+        <v>0.1058812970568146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2322093312360484</v>
+        <v>0.2340619842467122</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>10627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5178</v>
+        <v>5264</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18772</v>
+        <v>18021</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1290993035251685</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0629069933579277</v>
+        <v>0.0639486086730609</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2280570964004608</v>
+        <v>0.2189296213218468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2554,19 +2554,19 @@
         <v>12679</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6862</v>
+        <v>7217</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20736</v>
+        <v>19895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2316096383234698</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1253503813352434</v>
+        <v>0.1318288378953941</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3787899031863959</v>
+        <v>0.3634245167496438</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2575,19 +2575,19 @@
         <v>23306</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15397</v>
+        <v>15294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34559</v>
+        <v>32948</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1700438569240649</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1123394832639442</v>
+        <v>0.1115906999390435</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2521539349853412</v>
+        <v>0.2403990615994952</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>16068</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9659</v>
+        <v>9615</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23590</v>
+        <v>24380</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1952017086776117</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1173406185929834</v>
+        <v>0.1168073578623952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2865840213542604</v>
+        <v>0.296177028889572</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2625,19 +2625,19 @@
         <v>11690</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6731</v>
+        <v>6558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18088</v>
+        <v>18306</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2135452887148191</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1229480252566166</v>
+        <v>0.1197998748694619</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3304246780111239</v>
+        <v>0.3344006441765841</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2646,19 +2646,19 @@
         <v>27758</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19423</v>
+        <v>19638</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37843</v>
+        <v>37958</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.202528479132885</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1417182198888395</v>
+        <v>0.1432817006973178</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2761097658382479</v>
+        <v>0.2769539377912947</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>13992</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7597</v>
+        <v>7586</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22292</v>
+        <v>22399</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1699820854211298</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09229816838183763</v>
+        <v>0.09216320866112536</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2708203307022451</v>
+        <v>0.2721182168996262</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -2696,19 +2696,19 @@
         <v>7142</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3080</v>
+        <v>3165</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13713</v>
+        <v>13392</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1304602419451216</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05625656150040816</v>
+        <v>0.0578144167673386</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2505001350155903</v>
+        <v>0.2446357590622488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -2717,19 +2717,19 @@
         <v>21134</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13709</v>
+        <v>12708</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31221</v>
+        <v>31111</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1541963187098006</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.100023131408913</v>
+        <v>0.09272161773084249</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2277935845946568</v>
+        <v>0.226993590275112</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>29648</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21020</v>
+        <v>21156</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39956</v>
+        <v>39039</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3601778280916506</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2553656928072737</v>
+        <v>0.2570106056173078</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4854077610936365</v>
+        <v>0.4742741664555117</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2767,19 +2767,19 @@
         <v>13566</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7470</v>
+        <v>7705</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20358</v>
+        <v>21017</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2478070684301542</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1364616163885285</v>
+        <v>0.1407435715673319</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.37187550570824</v>
+        <v>0.3839237636257142</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -2788,19 +2788,19 @@
         <v>43213</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32165</v>
+        <v>33308</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54840</v>
+        <v>55202</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3152948357720222</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2346851230575481</v>
+        <v>0.2430262172531202</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4001264559576709</v>
+        <v>0.4027662938323652</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>16962</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9970</v>
+        <v>9589</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>26786</v>
+        <v>26178</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1434183728299823</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.084299199047245</v>
+        <v>0.08107610425710113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2264882645726978</v>
+        <v>0.2213497495204471</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2913,19 +2913,19 @@
         <v>6054</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1982</v>
+        <v>2053</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12339</v>
+        <v>12076</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1094857677804159</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03584185315626096</v>
+        <v>0.03712409682255839</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2231697143490827</v>
+        <v>0.2184123448269741</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -2934,19 +2934,19 @@
         <v>23015</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14944</v>
+        <v>15094</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34188</v>
+        <v>33884</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1326081211610675</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08610342515903134</v>
+        <v>0.08696653529305837</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.196980463666448</v>
+        <v>0.1952328653608327</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>10080</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4899</v>
+        <v>5008</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18857</v>
+        <v>18118</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08523467043341605</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04142345449711891</v>
+        <v>0.0423440664081324</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1594462200613974</v>
+        <v>0.1532011251955687</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3990</v>
+        <v>4925</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01712770912064136</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07216267552472848</v>
+        <v>0.08908102674851005</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -3005,19 +3005,19 @@
         <v>11027</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6098</v>
+        <v>5793</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>19018</v>
+        <v>19617</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0635371499771861</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0351328492811064</v>
+        <v>0.03337610827288267</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1095758017538515</v>
+        <v>0.1130300522622214</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>16374</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8686</v>
+        <v>9181</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25591</v>
+        <v>26789</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1384468023996512</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0734466232835515</v>
+        <v>0.07763056694824527</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2163879072112634</v>
+        <v>0.2265132318793101</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -3055,19 +3055,19 @@
         <v>8479</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3929</v>
+        <v>4444</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15423</v>
+        <v>15457</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1533471082185679</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07105549555693287</v>
+        <v>0.08036574871396855</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2789306560818836</v>
+        <v>0.2795582384007372</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -3076,19 +3076,19 @@
         <v>24852</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16979</v>
+        <v>15351</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>37117</v>
+        <v>36796</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1431937428603378</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09782759137984828</v>
+        <v>0.08844939816497212</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2138609317587674</v>
+        <v>0.2120073447600606</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>24282</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16794</v>
+        <v>16210</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33979</v>
+        <v>36143</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2053167576424708</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1420024288698709</v>
+        <v>0.1370601597311743</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2873106796979963</v>
+        <v>0.3056064403301527</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3126,19 +3126,19 @@
         <v>10864</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5772</v>
+        <v>5881</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17817</v>
+        <v>17770</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1964895949963145</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1043856534104284</v>
+        <v>0.1063599757265933</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.322236722787823</v>
+        <v>0.3213826786428016</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -3147,19 +3147,19 @@
         <v>35146</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25275</v>
+        <v>25211</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47780</v>
+        <v>47000</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2025045995547553</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1456279961102352</v>
+        <v>0.1452599144991847</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2752972105607274</v>
+        <v>0.2708023713182141</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>50569</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>39023</v>
+        <v>39847</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>60773</v>
+        <v>62472</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4275833966944798</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3299630751076413</v>
+        <v>0.336929988790053</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5138654122296227</v>
+        <v>0.5282365375123341</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>26</v>
@@ -3197,19 +3197,19 @@
         <v>28948</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>20877</v>
+        <v>21483</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>35963</v>
+        <v>36558</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5235498198840604</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3775812680109309</v>
+        <v>0.3885397138436719</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.650424730362158</v>
+        <v>0.6611836458919679</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>75</v>
@@ -3218,19 +3218,19 @@
         <v>79517</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>66160</v>
+        <v>65964</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>92723</v>
+        <v>92533</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4581563864466534</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3811988199879739</v>
+        <v>0.3800664822719568</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5342469804061568</v>
+        <v>0.5331534262976375</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>28708</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>19677</v>
+        <v>19149</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>40803</v>
+        <v>39648</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1072149899588645</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07348648744770578</v>
+        <v>0.07151605724646987</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1523861467960188</v>
+        <v>0.1480725088112069</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -3343,19 +3343,19 @@
         <v>32133</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22197</v>
+        <v>22859</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>43637</v>
+        <v>44974</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1792544678977229</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1238249306714912</v>
+        <v>0.1275173834359035</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2434334961240122</v>
+        <v>0.2508904067397764</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>58</v>
@@ -3364,19 +3364,19 @@
         <v>60841</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>47534</v>
+        <v>47407</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>76241</v>
+        <v>77795</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1361034523097173</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1063367506292187</v>
+        <v>0.1060526831273418</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1705535672112546</v>
+        <v>0.1740321398881892</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>23821</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15128</v>
+        <v>15427</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35110</v>
+        <v>34678</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08896370161835178</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0564976759683409</v>
+        <v>0.05761424672125054</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1311252229894231</v>
+        <v>0.1295105911304939</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>15</v>
@@ -3414,19 +3414,19 @@
         <v>15549</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9170</v>
+        <v>9151</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24755</v>
+        <v>25184</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08673858057904749</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05115642960755188</v>
+        <v>0.05104855794549776</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1380990103639678</v>
+        <v>0.1404881644176677</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3435,19 +3435,19 @@
         <v>39370</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>28463</v>
+        <v>28768</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>53632</v>
+        <v>54188</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08807140857002363</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06367403624341937</v>
+        <v>0.06435577344454074</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1199765147090699</v>
+        <v>0.121222006731795</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>63247</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>49708</v>
+        <v>50567</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>79296</v>
+        <v>80377</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2362082517566561</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1856427641669968</v>
+        <v>0.1888512015085905</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2961444120119867</v>
+        <v>0.3001842193013453</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>32</v>
@@ -3485,19 +3485,19 @@
         <v>35711</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>25073</v>
+        <v>25242</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>47774</v>
+        <v>47526</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1992128700133228</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1398698485818076</v>
+        <v>0.1408126768546722</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2665113136078214</v>
+        <v>0.2651263012227826</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>89</v>
@@ -3506,19 +3506,19 @@
         <v>98958</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>80879</v>
+        <v>81420</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>119595</v>
+        <v>117444</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2213727792737104</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1809307904672783</v>
+        <v>0.1821412647406397</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2675388053855576</v>
+        <v>0.2627283980816639</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>62893</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>49352</v>
+        <v>49618</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>76853</v>
+        <v>76060</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2348850217893382</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1843157462853179</v>
+        <v>0.1853076847624562</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.287020266769937</v>
+        <v>0.2840593388454934</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -3556,19 +3556,19 @@
         <v>31806</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>22467</v>
+        <v>22983</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>42719</v>
+        <v>44941</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1774321695093055</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.125334761424685</v>
+        <v>0.1282106084274484</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2383122370927954</v>
+        <v>0.2507032530062713</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>94</v>
@@ -3577,19 +3577,19 @@
         <v>94699</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>79217</v>
+        <v>77960</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>112813</v>
+        <v>113403</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2118459242343909</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1772117794085404</v>
+        <v>0.1744004427664806</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2523682155001356</v>
+        <v>0.2536868323257585</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>89091</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>74330</v>
+        <v>74139</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>106092</v>
+        <v>105316</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3327280348767894</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2776001063373258</v>
+        <v>0.2768874616649102</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3962199388186621</v>
+        <v>0.3933238218664074</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>60</v>
@@ -3627,19 +3627,19 @@
         <v>64060</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>52261</v>
+        <v>51374</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>78309</v>
+        <v>77105</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3573619120006013</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2915396670946928</v>
+        <v>0.2865923745466365</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4368504174919671</v>
+        <v>0.430136478222021</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>140</v>
@@ -3648,19 +3648,19 @@
         <v>153151</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>133002</v>
+        <v>134324</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>175285</v>
+        <v>173807</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3426064356121578</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2975316397274789</v>
+        <v>0.3004887151687797</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3921202328032311</v>
+        <v>0.3888147992239991</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>16730</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9627</v>
+        <v>8990</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>27185</v>
+        <v>26279</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04671805654986913</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02688374278577558</v>
+        <v>0.02510333912780878</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07591177572323815</v>
+        <v>0.07338202514481433</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>19</v>
@@ -3773,19 +3773,19 @@
         <v>21935</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>13523</v>
+        <v>13517</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>33695</v>
+        <v>33913</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08481914461209451</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05229328535652789</v>
+        <v>0.05226679636015993</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1302932640134673</v>
+        <v>0.1311375410560942</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>34</v>
@@ -3794,19 +3794,19 @@
         <v>38665</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>26742</v>
+        <v>26904</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>54005</v>
+        <v>52885</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0626948738996841</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04336079257193134</v>
+        <v>0.0436243702486007</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08756724612120734</v>
+        <v>0.08575230079679709</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>16615</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9854</v>
+        <v>9435</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>28517</v>
+        <v>27870</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04639653323438592</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02751698689454164</v>
+        <v>0.02634556556580772</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07963119036520165</v>
+        <v>0.07782439080386962</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>19</v>
@@ -3844,19 +3844,19 @@
         <v>21475</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13825</v>
+        <v>13672</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>33675</v>
+        <v>32075</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08304050351620737</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05345996274834609</v>
+        <v>0.05286936234802261</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1302156472648275</v>
+        <v>0.1240286493171893</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>34</v>
@@ -3865,19 +3865,19 @@
         <v>38090</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>26706</v>
+        <v>26420</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>52842</v>
+        <v>53917</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06176234166506815</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04330305741624821</v>
+        <v>0.04283952728695965</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08568182038822242</v>
+        <v>0.08742450461331135</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>74159</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>58402</v>
+        <v>58357</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>91640</v>
+        <v>91570</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2070828625687096</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1630811605703298</v>
+        <v>0.1629569388619426</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2558965827123036</v>
+        <v>0.2557013457719099</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>48</v>
@@ -3915,19 +3915,19 @@
         <v>53281</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>40015</v>
+        <v>42402</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>67837</v>
+        <v>69555</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2060298858001564</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1547323516558038</v>
+        <v>0.1639623844293845</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2623171714329231</v>
+        <v>0.2689596438238249</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>116</v>
@@ -3936,19 +3936,19 @@
         <v>127440</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>107497</v>
+        <v>108654</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>149807</v>
+        <v>152134</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2066413209130672</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1743030775068521</v>
+        <v>0.1761802974631929</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2429085833390147</v>
+        <v>0.246681784754001</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>122786</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>104336</v>
+        <v>103758</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>142518</v>
+        <v>143211</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3428695660636536</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2913495159202552</v>
+        <v>0.2897355785159108</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3979671726504219</v>
+        <v>0.3999028958128846</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>78</v>
@@ -3986,19 +3986,19 @@
         <v>84860</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>69361</v>
+        <v>69737</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>102517</v>
+        <v>100430</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3281409598324941</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2682106770129614</v>
+        <v>0.2696616378938788</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3964183413131325</v>
+        <v>0.3883464647853351</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>195</v>
@@ -4007,19 +4007,19 @@
         <v>207646</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>184895</v>
+        <v>184533</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>233325</v>
+        <v>233346</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3366934628723675</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.29980281118378</v>
+        <v>0.2992159129654294</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3783316023399139</v>
+        <v>0.378364951471875</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>127823</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>109347</v>
+        <v>108861</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>146151</v>
+        <v>149396</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3569329815833817</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3053400235393388</v>
+        <v>0.3039835933177207</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4081132972729241</v>
+        <v>0.4171752470209256</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>70</v>
@@ -4057,19 +4057,19 @@
         <v>77057</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>62033</v>
+        <v>62815</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>94260</v>
+        <v>92211</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2979695062390476</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2398742069748047</v>
+        <v>0.2428980446144207</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3644879519643727</v>
+        <v>0.3565677620768576</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>188</v>
@@ -4078,19 +4078,19 @@
         <v>204880</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>181754</v>
+        <v>180209</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>228137</v>
+        <v>229266</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.332208000649813</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2947099399161051</v>
+        <v>0.2922041329148037</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3699186505311852</v>
+        <v>0.3717500403393866</v>
       </c>
     </row>
     <row r="51">
@@ -4182,19 +4182,19 @@
         <v>138589</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>115653</v>
+        <v>116299</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>161445</v>
+        <v>163880</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.09852233575429521</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08221712366291971</v>
+        <v>0.08267644145177092</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1147706967523816</v>
+        <v>0.1165014380001159</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>114</v>
@@ -4203,19 +4203,19 @@
         <v>122811</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>105214</v>
+        <v>103585</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>143560</v>
+        <v>145850</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.130967719040766</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1122023104065496</v>
+        <v>0.1104653545029503</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1530948616540439</v>
+        <v>0.1555370182591926</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>243</v>
@@ -4224,19 +4224,19 @@
         <v>261400</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>230672</v>
+        <v>230547</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>294958</v>
+        <v>290679</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1114999436165553</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09839299039237857</v>
+        <v>0.09833991901025221</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.125814327552921</v>
+        <v>0.1239890529585781</v>
       </c>
     </row>
     <row r="53">
@@ -4253,19 +4253,19 @@
         <v>112006</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>93042</v>
+        <v>91076</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>134701</v>
+        <v>135710</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.07962448758153806</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.06614340712724064</v>
+        <v>0.06474581291401517</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.09575828563218951</v>
+        <v>0.09647578407560309</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>83</v>
@@ -4274,19 +4274,19 @@
         <v>91903</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>73522</v>
+        <v>73471</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>111102</v>
+        <v>113159</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.09800707145943535</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07840556900657634</v>
+        <v>0.078351155685044</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1184811527899216</v>
+        <v>0.1206750965263645</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>185</v>
@@ -4295,19 +4295,19 @@
         <v>203909</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>175072</v>
+        <v>175776</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>235071</v>
+        <v>232491</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.08697721209571979</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0746767363520088</v>
+        <v>0.07497727455559938</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1002695066882403</v>
+        <v>0.09916907763609885</v>
       </c>
     </row>
     <row r="54">
@@ -4324,19 +4324,19 @@
         <v>293588</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>264993</v>
+        <v>260518</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>327069</v>
+        <v>325493</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2087109446094607</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1883825676087348</v>
+        <v>0.1852014443370812</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2325122010128136</v>
+        <v>0.2313920635452418</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>163</v>
@@ -4345,19 +4345,19 @@
         <v>176334</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>155345</v>
+        <v>155169</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>203430</v>
+        <v>202985</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1880461182124862</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1656622986364352</v>
+        <v>0.1654752918380249</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2169415066882214</v>
+        <v>0.2164670546782912</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>437</v>
@@ -4366,19 +4366,19 @@
         <v>469923</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>431065</v>
+        <v>431015</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>508010</v>
+        <v>511225</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2004453614553408</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1838706043557537</v>
+        <v>0.183849182459204</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2166913879356115</v>
+        <v>0.2180626634734836</v>
       </c>
     </row>
     <row r="55">
@@ -4395,19 +4395,19 @@
         <v>301099</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>268710</v>
+        <v>271899</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>334174</v>
+        <v>335706</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2140503518733906</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1910247830494356</v>
+        <v>0.1932922136962496</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2375633605866004</v>
+        <v>0.2386518632288294</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>177</v>
@@ -4416,19 +4416,19 @@
         <v>187902</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>164114</v>
+        <v>162602</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>215416</v>
+        <v>214035</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2003818599326855</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1750137094698734</v>
+        <v>0.1734020529226805</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2297234344175531</v>
+        <v>0.2282505011290638</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>468</v>
@@ -4437,19 +4437,19 @@
         <v>489001</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>448812</v>
+        <v>451499</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>529510</v>
+        <v>530610</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2085831848835988</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1914407340125751</v>
+        <v>0.1925865721103756</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.225862149098775</v>
+        <v>0.2263314352455639</v>
       </c>
     </row>
     <row r="56">
@@ -4466,19 +4466,19 @@
         <v>561393</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>526897</v>
+        <v>524772</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>599331</v>
+        <v>604126</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3990918801813154</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3745693537260401</v>
+        <v>0.3730581446760359</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.426062408314538</v>
+        <v>0.429470777992503</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>328</v>
@@ -4487,19 +4487,19 @@
         <v>358768</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>328238</v>
+        <v>329234</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>387284</v>
+        <v>387612</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3825972313546269</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3500395367872458</v>
+        <v>0.3511013523422671</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4130073330491978</v>
+        <v>0.413356328866592</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>854</v>
@@ -4508,19 +4508,19 @@
         <v>920161</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>872572</v>
+        <v>873440</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>969883</v>
+        <v>970842</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3924942979487852</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3721952291547888</v>
+        <v>0.3725656156645795</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4137032281214945</v>
+        <v>0.4141121447631055</v>
       </c>
     </row>
     <row r="57">
@@ -4856,19 +4856,19 @@
         <v>51310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39269</v>
+        <v>39998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62988</v>
+        <v>63242</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3856393363150934</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.295140023324659</v>
+        <v>0.3006184436351069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4734112459325448</v>
+        <v>0.4753201398395516</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4877,19 +4877,19 @@
         <v>39655</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29528</v>
+        <v>30153</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49893</v>
+        <v>50306</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3962741326839921</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2950729663905312</v>
+        <v>0.3013153051543494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4985801796241938</v>
+        <v>0.5027099694569597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -4898,19 +4898,19 @@
         <v>90964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76247</v>
+        <v>75308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106444</v>
+        <v>106692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3902044472396012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3270723930244465</v>
+        <v>0.3230420092850783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4566066667928161</v>
+        <v>0.4576692185361386</v>
       </c>
     </row>
     <row r="5">
@@ -4927,19 +4927,19 @@
         <v>11042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5839</v>
+        <v>5063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20137</v>
+        <v>18919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08298919670016207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0438836803265631</v>
+        <v>0.03805523007271652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1513509625539546</v>
+        <v>0.1421908349212672</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4948,19 +4948,19 @@
         <v>7134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3359</v>
+        <v>2779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13964</v>
+        <v>14989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07129041402065409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03357045085107006</v>
+        <v>0.02777550350729613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1395421969459819</v>
+        <v>0.1497809909814054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4969,19 +4969,19 @@
         <v>18176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11438</v>
+        <v>10191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28870</v>
+        <v>28964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07796735718757389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04906546749306514</v>
+        <v>0.04371668513430821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1238435397287101</v>
+        <v>0.1242443720943524</v>
       </c>
     </row>
     <row r="6">
@@ -4998,19 +4998,19 @@
         <v>9649</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5131</v>
+        <v>5031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18179</v>
+        <v>17000</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07252277786011502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03856558719395824</v>
+        <v>0.03781442693427898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1366296848449347</v>
+        <v>0.1277697220353774</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -5019,19 +5019,19 @@
         <v>17090</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10612</v>
+        <v>10221</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25765</v>
+        <v>25760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1707778695274874</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1060427816882973</v>
+        <v>0.1021425325491273</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2574700956884621</v>
+        <v>0.2574175210281593</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -5040,19 +5040,19 @@
         <v>26739</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17795</v>
+        <v>18861</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38685</v>
+        <v>37724</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1146999269845687</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07633598168177377</v>
+        <v>0.08090658719195015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1659436391086587</v>
+        <v>0.1618234996820234</v>
       </c>
     </row>
     <row r="7">
@@ -5069,19 +5069,19 @@
         <v>21160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13652</v>
+        <v>12708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32634</v>
+        <v>30977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1590348179769697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026061707680456</v>
+        <v>0.09551483319836225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2452753802065845</v>
+        <v>0.2328175535483436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5090,19 +5090,19 @@
         <v>7863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3747</v>
+        <v>3715</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14018</v>
+        <v>14457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0785747956323754</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03744588127381678</v>
+        <v>0.03712522758052739</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1400787009456129</v>
+        <v>0.1444708131026552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -5111,19 +5111,19 @@
         <v>29023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19015</v>
+        <v>19934</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40940</v>
+        <v>41289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1244964108227302</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08156599335046706</v>
+        <v>0.08550946164670904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1756192926626504</v>
+        <v>0.1771144584849259</v>
       </c>
     </row>
     <row r="8">
@@ -5140,19 +5140,19 @@
         <v>39891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29216</v>
+        <v>29506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50441</v>
+        <v>52426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2998138711476598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2195878097802422</v>
+        <v>0.2217630843680826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3791110416397805</v>
+        <v>0.394027296908186</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -5161,19 +5161,19 @@
         <v>28328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20072</v>
+        <v>19856</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38248</v>
+        <v>38546</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2830827881354911</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2005776688693547</v>
+        <v>0.1984241705787016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3822155916476822</v>
+        <v>0.385194652718544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>63</v>
@@ -5182,19 +5182,19 @@
         <v>68218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55252</v>
+        <v>54498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82786</v>
+        <v>83749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.292631857765526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.237009654030341</v>
+        <v>0.2337770781897725</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3551216902346545</v>
+        <v>0.359252866611773</v>
       </c>
     </row>
     <row r="9">
@@ -5286,19 +5286,19 @@
         <v>22054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14532</v>
+        <v>14370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33551</v>
+        <v>33223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1295008945144426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08533395407516281</v>
+        <v>0.08438073015678718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1970129702244941</v>
+        <v>0.1950888782948265</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5307,19 +5307,19 @@
         <v>19250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12109</v>
+        <v>12814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27771</v>
+        <v>27641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.169331479374445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1065188586673765</v>
+        <v>0.1127215415675532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2442907129955057</v>
+        <v>0.2431485224461352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -5328,19 +5328,19 @@
         <v>41303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30434</v>
+        <v>29185</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56226</v>
+        <v>54950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1454456678942045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1071720530537516</v>
+        <v>0.1027713892486249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1979949412034413</v>
+        <v>0.1935005655776615</v>
       </c>
     </row>
     <row r="11">
@@ -5357,19 +5357,19 @@
         <v>23612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15116</v>
+        <v>14568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34419</v>
+        <v>33626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1386542314147251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08876527479165894</v>
+        <v>0.08554481126351537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2021128213776689</v>
+        <v>0.1974526985428756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5378,19 +5378,19 @@
         <v>14494</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8536</v>
+        <v>8460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23189</v>
+        <v>22894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1275000992772711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07508489761687406</v>
+        <v>0.07441856848122826</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2039847138843136</v>
+        <v>0.2013928450360823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -5399,19 +5399,19 @@
         <v>38107</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26589</v>
+        <v>26872</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51037</v>
+        <v>51366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1341890670239753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09363250875704435</v>
+        <v>0.0946277764437687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1797225139660711</v>
+        <v>0.1808794547909288</v>
       </c>
     </row>
     <row r="12">
@@ -5428,19 +5428,19 @@
         <v>48071</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36151</v>
+        <v>36581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61205</v>
+        <v>60916</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2822782782600366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2122809244444094</v>
+        <v>0.2148091596112487</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3594038375312555</v>
+        <v>0.357706697916786</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -5449,19 +5449,19 @@
         <v>20254</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13270</v>
+        <v>13090</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29413</v>
+        <v>29246</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1781636652927842</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1167319851665901</v>
+        <v>0.1151490051878697</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2587388393940245</v>
+        <v>0.257264560969275</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -5470,19 +5470,19 @@
         <v>68325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>54288</v>
+        <v>54728</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82907</v>
+        <v>83489</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2405996557863932</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1911691747071106</v>
+        <v>0.1927201108620998</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2919481170236248</v>
+        <v>0.2939999784410445</v>
       </c>
     </row>
     <row r="13">
@@ -5499,19 +5499,19 @@
         <v>21790</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13708</v>
+        <v>13679</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32599</v>
+        <v>31293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1279532571035717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08049457425506251</v>
+        <v>0.08032577717533532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1914247446505026</v>
+        <v>0.1837578783095303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5520,19 +5520,19 @@
         <v>9739</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4034</v>
+        <v>4964</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16232</v>
+        <v>18008</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08566933661779838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0354824654283681</v>
+        <v>0.04366304491227149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1427872531907922</v>
+        <v>0.1584065596783793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -5541,19 +5541,19 @@
         <v>31529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22743</v>
+        <v>21967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44017</v>
+        <v>43361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1110263771161638</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0800858362047208</v>
+        <v>0.07735374962200701</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1550016438451904</v>
+        <v>0.1526921490460733</v>
       </c>
     </row>
     <row r="14">
@@ -5570,19 +5570,19 @@
         <v>54770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42289</v>
+        <v>42342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67775</v>
+        <v>68372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.321613338707224</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2483225974944983</v>
+        <v>0.2486381502651583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3979783153609458</v>
+        <v>0.4014861197293716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -5591,19 +5591,19 @@
         <v>49944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40271</v>
+        <v>40670</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60415</v>
+        <v>60912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4393354194377013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3542489890458663</v>
+        <v>0.3577618524466196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5314477331990202</v>
+        <v>0.5358219277662888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -5612,19 +5612,19 @@
         <v>104713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>86417</v>
+        <v>88469</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118960</v>
+        <v>120268</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3687392321792632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3043100903833176</v>
+        <v>0.3115345465098748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4189073911073196</v>
+        <v>0.4235117559089353</v>
       </c>
     </row>
     <row r="15">
@@ -5716,19 +5716,19 @@
         <v>20028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13205</v>
+        <v>13220</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28705</v>
+        <v>29682</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1594753935145972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1051472526882917</v>
+        <v>0.1052651590534088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2285646268828456</v>
+        <v>0.2363401135979317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -5737,19 +5737,19 @@
         <v>15222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9577</v>
+        <v>9312</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23260</v>
+        <v>22315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1805029426692178</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1135559759570775</v>
+        <v>0.1104252690928027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2758119246564294</v>
+        <v>0.2646065064146014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -5758,19 +5758,19 @@
         <v>35251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25389</v>
+        <v>26075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45741</v>
+        <v>46025</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.167922918008847</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1209431073542942</v>
+        <v>0.1242145198736606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2178958879523105</v>
+        <v>0.2192502297153654</v>
       </c>
     </row>
     <row r="17">
@@ -5787,19 +5787,19 @@
         <v>28022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19243</v>
+        <v>18974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36830</v>
+        <v>37606</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2231245431669561</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1532191588654358</v>
+        <v>0.1510808856809694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.29325524395066</v>
+        <v>0.2994353041658934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5808,19 +5808,19 @@
         <v>15302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9922</v>
+        <v>9133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23093</v>
+        <v>23776</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1814503196647207</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1176564625842139</v>
+        <v>0.1082988496204422</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2738320916479805</v>
+        <v>0.2819354063587213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -5829,19 +5829,19 @@
         <v>43324</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32909</v>
+        <v>32803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56151</v>
+        <v>55716</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2063825053181651</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1567692438132021</v>
+        <v>0.1562643461301682</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2674870209944958</v>
+        <v>0.2654140893441757</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>37737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27850</v>
+        <v>27741</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47725</v>
+        <v>47246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3004789047765214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2217564418032478</v>
+        <v>0.2208866229678175</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3800087234922943</v>
+        <v>0.3761981598781498</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -5879,19 +5879,19 @@
         <v>25548</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17346</v>
+        <v>17654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33746</v>
+        <v>33738</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3029427989113621</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.205679920088452</v>
+        <v>0.2093416703165226</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4001499709386599</v>
+        <v>0.4000580238291065</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -5900,19 +5900,19 @@
         <v>63285</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51171</v>
+        <v>51748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77993</v>
+        <v>75857</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3014687398686787</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2437604115283615</v>
+        <v>0.2465096426392917</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3715341043119382</v>
+        <v>0.3613570899940175</v>
       </c>
     </row>
     <row r="19">
@@ -5929,19 +5929,19 @@
         <v>25322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17359</v>
+        <v>17492</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35140</v>
+        <v>35202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2016278592790708</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1382240487937787</v>
+        <v>0.1392783658655269</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2798042704057033</v>
+        <v>0.280292483678234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5950,19 +5950,19 @@
         <v>17204</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10027</v>
+        <v>10896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25404</v>
+        <v>26044</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2040036998543873</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1189017650069191</v>
+        <v>0.1291972660148042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3012294279714638</v>
+        <v>0.3088269124443488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -5971,19 +5971,19 @@
         <v>42526</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30598</v>
+        <v>31442</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54062</v>
+        <v>55359</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2025823200822219</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1457566617832581</v>
+        <v>0.1497800401084183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2575326558722521</v>
+        <v>0.2637114506581782</v>
       </c>
     </row>
     <row r="20">
@@ -6000,19 +6000,19 @@
         <v>14480</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8650</v>
+        <v>8275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22690</v>
+        <v>22743</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1152932992628544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06887386317056869</v>
+        <v>0.06588813857860647</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1806704122722435</v>
+        <v>0.1810909427483971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -6021,19 +6021,19 @@
         <v>11056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6211</v>
+        <v>5783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18512</v>
+        <v>18923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1311002389003122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07364724409493606</v>
+        <v>0.06857823020919121</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2195104307509708</v>
+        <v>0.2243878642617705</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -6042,19 +6042,19 @@
         <v>25536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16595</v>
+        <v>17853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36523</v>
+        <v>37470</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1216435167220874</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07905250864922682</v>
+        <v>0.08504448457288871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1739847737650291</v>
+        <v>0.1784939736085279</v>
       </c>
     </row>
     <row r="21">
@@ -6146,19 +6146,19 @@
         <v>20223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13009</v>
+        <v>13258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29470</v>
+        <v>29864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1802686971241322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.115961571798681</v>
+        <v>0.1181885926966574</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2627016421822126</v>
+        <v>0.2662134915705083</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -6167,19 +6167,19 @@
         <v>16417</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9846</v>
+        <v>10183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24615</v>
+        <v>24846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.200548068284748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1202790626742832</v>
+        <v>0.1244009313031301</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3007055528887495</v>
+        <v>0.3035165025453664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -6188,19 +6188,19 @@
         <v>36639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26259</v>
+        <v>26046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48859</v>
+        <v>47847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1888239122901992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1353294492026587</v>
+        <v>0.1342309701228355</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2518011545448922</v>
+        <v>0.2465837791597137</v>
       </c>
     </row>
     <row r="23">
@@ -6217,19 +6217,19 @@
         <v>11582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5946</v>
+        <v>5934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19637</v>
+        <v>19496</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1032462040024051</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0530081309321507</v>
+        <v>0.05289644487375268</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1750449654520436</v>
+        <v>0.1737890672385536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -6238,19 +6238,19 @@
         <v>11835</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6481</v>
+        <v>6169</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19900</v>
+        <v>19944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.144582646456139</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07916701596433019</v>
+        <v>0.07536241111200198</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2430985594476347</v>
+        <v>0.2436425467389218</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -6259,19 +6259,19 @@
         <v>23418</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15696</v>
+        <v>15552</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>34469</v>
+        <v>34395</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1206847210348385</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08088956542656318</v>
+        <v>0.08014814942551264</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1776391437924823</v>
+        <v>0.1772563864226663</v>
       </c>
     </row>
     <row r="24">
@@ -6288,19 +6288,19 @@
         <v>11238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6005</v>
+        <v>5694</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19282</v>
+        <v>19219</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1001748751139367</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0535327780507541</v>
+        <v>0.05075681689554882</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1718824160058507</v>
+        <v>0.1713201377929388</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -6309,19 +6309,19 @@
         <v>9856</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5555</v>
+        <v>4745</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17360</v>
+        <v>16409</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1204076811655119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06785953082453355</v>
+        <v>0.05797008401784415</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2120739249698568</v>
+        <v>0.2004565081883231</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -6330,19 +6330,19 @@
         <v>21094</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13404</v>
+        <v>13438</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31232</v>
+        <v>30731</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1087104459565225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0690804505482899</v>
+        <v>0.06925395156137405</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1609554075014371</v>
+        <v>0.1583750571067435</v>
       </c>
     </row>
     <row r="25">
@@ -6359,19 +6359,19 @@
         <v>17093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9292</v>
+        <v>9724</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26852</v>
+        <v>26465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1523708744394667</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0828319642307026</v>
+        <v>0.08668518383204257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2393651254916427</v>
+        <v>0.2359113599778009</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -6380,19 +6380,19 @@
         <v>7646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3702</v>
+        <v>3688</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14116</v>
+        <v>14413</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09340351646427535</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04521959103740211</v>
+        <v>0.04504993541026773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1724480216933991</v>
+        <v>0.1760725189584188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -6401,19 +6401,19 @@
         <v>24739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15882</v>
+        <v>15835</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36598</v>
+        <v>36247</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1274944405867251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08185099639585536</v>
+        <v>0.08160665912470076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1886130924464393</v>
+        <v>0.1868029007051596</v>
       </c>
     </row>
     <row r="26">
@@ -6430,19 +6430,19 @@
         <v>52045</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>40944</v>
+        <v>41718</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63568</v>
+        <v>64007</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4639393493200593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3649889223736829</v>
+        <v>0.3718835144654274</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5666633682822609</v>
+        <v>0.5705743913295493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -6451,19 +6451,19 @@
         <v>36105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26668</v>
+        <v>27121</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46131</v>
+        <v>44354</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4410580876293258</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3257752879143895</v>
+        <v>0.33131116688135</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5635418267159468</v>
+        <v>0.541838586642763</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -6472,19 +6472,19 @@
         <v>88149</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>75096</v>
+        <v>73865</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>103279</v>
+        <v>103198</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4542864801317149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3870145799950354</v>
+        <v>0.3806686622056691</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5322614408798042</v>
+        <v>0.5318414564314163</v>
       </c>
     </row>
     <row r="27">
@@ -6576,19 +6576,19 @@
         <v>3501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9121</v>
+        <v>11277</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04326513282969031</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01145454895994845</v>
+        <v>0.01171976844364777</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1126996212505622</v>
+        <v>0.1393392842415305</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -6597,19 +6597,19 @@
         <v>5252</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11589</v>
+        <v>11810</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09477914124934844</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0336077958123981</v>
+        <v>0.03352184980009802</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2091206831271136</v>
+        <v>0.2130992588034766</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -6618,19 +6618,19 @@
         <v>8754</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3759</v>
+        <v>3936</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15899</v>
+        <v>17177</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06420286098469596</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0275720016281445</v>
+        <v>0.02886861926824219</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1166034077627076</v>
+        <v>0.1259823919114212</v>
       </c>
     </row>
     <row r="29">
@@ -6647,19 +6647,19 @@
         <v>11362</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5888</v>
+        <v>5834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18183</v>
+        <v>19211</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1403912445232167</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07275646496402896</v>
+        <v>0.07208652135938076</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2246775884133579</v>
+        <v>0.2373792884043966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -6668,19 +6668,19 @@
         <v>7985</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4255</v>
+        <v>4156</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14688</v>
+        <v>14173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1440781862105203</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07677798170369041</v>
+        <v>0.07499314571289979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.265035653210003</v>
+        <v>0.2557472138697868</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -6689,19 +6689,19 @@
         <v>19346</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12382</v>
+        <v>12723</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28188</v>
+        <v>29326</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1418897919113998</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09081434064528844</v>
+        <v>0.09331360366516912</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2067342146284013</v>
+        <v>0.2150805360466566</v>
       </c>
     </row>
     <row r="30">
@@ -6718,19 +6718,19 @@
         <v>29237</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20672</v>
+        <v>20694</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37840</v>
+        <v>38213</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3612669809859198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2554260571634209</v>
+        <v>0.2557005614218475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4675694440818441</v>
+        <v>0.4721704032098691</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -6739,19 +6739,19 @@
         <v>18384</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12176</v>
+        <v>12102</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25005</v>
+        <v>25472</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3317377832033344</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2197108155468277</v>
+        <v>0.2183724029272743</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.451206940138986</v>
+        <v>0.4596256877261873</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>48</v>
@@ -6760,19 +6760,19 @@
         <v>47622</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36318</v>
+        <v>37595</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>59350</v>
+        <v>60758</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3492649191240199</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2663642380932209</v>
+        <v>0.2757319389389009</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4352809253811646</v>
+        <v>0.4456125547753204</v>
       </c>
     </row>
     <row r="31">
@@ -6789,19 +6789,19 @@
         <v>27616</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19450</v>
+        <v>19659</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35923</v>
+        <v>36999</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3412352441839961</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2403287128397685</v>
+        <v>0.2429185901116425</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4438784241027742</v>
+        <v>0.4571774329692677</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -6810,19 +6810,19 @@
         <v>15654</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9396</v>
+        <v>9859</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22527</v>
+        <v>22807</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2824764903385097</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1695473838304871</v>
+        <v>0.1778947543025349</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.406494753972835</v>
+        <v>0.4115422816569632</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -6831,19 +6831,19 @@
         <v>43270</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33458</v>
+        <v>32797</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>55947</v>
+        <v>54624</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3173529090195245</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2453866380784323</v>
+        <v>0.2405364523807413</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4103286104748257</v>
+        <v>0.4006217425543842</v>
       </c>
     </row>
     <row r="32">
@@ -6860,19 +6860,19 @@
         <v>9213</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4667</v>
+        <v>4186</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16504</v>
+        <v>16477</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.113841397477177</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05766104699798816</v>
+        <v>0.0517237889949044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2039307790092794</v>
+        <v>0.2036017000545313</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -6881,19 +6881,19 @@
         <v>8142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3756</v>
+        <v>3639</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14617</v>
+        <v>15085</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1469283989982872</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06776945610654737</v>
+        <v>0.06566131561569087</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2637670045584163</v>
+        <v>0.2722098434116939</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>17</v>
@@ -6902,19 +6902,19 @@
         <v>17356</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9957</v>
+        <v>10477</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26587</v>
+        <v>26143</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1272895189603598</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07302289371838014</v>
+        <v>0.07684153245045725</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1949919311335377</v>
+        <v>0.1917401805161733</v>
       </c>
     </row>
     <row r="33">
@@ -7006,19 +7006,19 @@
         <v>2872</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7787</v>
+        <v>7606</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02671994533687491</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008354278113907021</v>
+        <v>0.00841037533995761</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07243202773675241</v>
+        <v>0.07075031361296816</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -7027,19 +7027,19 @@
         <v>3785</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>920</v>
+        <v>965</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8478</v>
+        <v>8548</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05008879398533805</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01218037304851438</v>
+        <v>0.01276387735646102</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.112192071635906</v>
+        <v>0.113114700223885</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -7048,19 +7048,19 @@
         <v>6658</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2889</v>
+        <v>2809</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13313</v>
+        <v>13241</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03636619748479889</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01578154388945722</v>
+        <v>0.01534602393176878</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07271802795244062</v>
+        <v>0.07232766683661127</v>
       </c>
     </row>
     <row r="35">
@@ -7077,19 +7077,19 @@
         <v>21328</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14020</v>
+        <v>13995</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>30020</v>
+        <v>30811</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1983950806048911</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1304159980374908</v>
+        <v>0.1301844534369799</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2792510953289546</v>
+        <v>0.2866047446060873</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -7098,19 +7098,19 @@
         <v>16564</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>10023</v>
+        <v>10323</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24714</v>
+        <v>24557</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.219189457919815</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1326417163029317</v>
+        <v>0.1366096879546609</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3270455836801986</v>
+        <v>0.3249660777325589</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>37</v>
@@ -7119,19 +7119,19 @@
         <v>37892</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>27318</v>
+        <v>27191</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>49430</v>
+        <v>48576</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.206978635997639</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1492206663892402</v>
+        <v>0.1485274147383178</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2700042560238007</v>
+        <v>0.2653402212107233</v>
       </c>
     </row>
     <row r="36">
@@ -7148,19 +7148,19 @@
         <v>35668</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25740</v>
+        <v>26487</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>46321</v>
+        <v>46395</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3317935058765065</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2394334171506297</v>
+        <v>0.2463830966626184</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4308896287454275</v>
+        <v>0.4315732495167295</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>29</v>
@@ -7169,19 +7169,19 @@
         <v>27984</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20710</v>
+        <v>19582</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36065</v>
+        <v>36603</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3703149027236719</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2740541428458342</v>
+        <v>0.2591298948764675</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4772499672985502</v>
+        <v>0.4843684924104834</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>64</v>
@@ -7190,19 +7190,19 @@
         <v>63653</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>52190</v>
+        <v>52256</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>77381</v>
+        <v>78750</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3476944649981036</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2850804999120722</v>
+        <v>0.2854412421254676</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4226804782768462</v>
+        <v>0.4301616239305403</v>
       </c>
     </row>
     <row r="37">
@@ -7219,19 +7219,19 @@
         <v>28240</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19820</v>
+        <v>20211</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>39244</v>
+        <v>38403</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2626949916173191</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1843720017051667</v>
+        <v>0.1880042462226089</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3650553307238641</v>
+        <v>0.3572310955378689</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -7240,19 +7240,19 @@
         <v>19291</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13039</v>
+        <v>11878</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27357</v>
+        <v>27290</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2552839161370987</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1725493882741822</v>
+        <v>0.1571780515199202</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3620214345098868</v>
+        <v>0.3611253669238448</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>46</v>
@@ -7261,19 +7261,19 @@
         <v>47532</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36238</v>
+        <v>35288</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>59525</v>
+        <v>59539</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2596358292321751</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1979440842493987</v>
+        <v>0.192755024467679</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3251474369300257</v>
+        <v>0.3252219444651291</v>
       </c>
     </row>
     <row r="38">
@@ -7290,19 +7290,19 @@
         <v>19393</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11973</v>
+        <v>12518</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28047</v>
+        <v>28593</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1803964765644084</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1113744201211746</v>
+        <v>0.1164456801395477</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2608985296354946</v>
+        <v>0.265971953066447</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -7311,19 +7311,19 @@
         <v>7944</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3391</v>
+        <v>3250</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15210</v>
+        <v>14966</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1051229292340763</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04487655848265885</v>
+        <v>0.04300104462379446</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2012787556840479</v>
+        <v>0.1980455282243041</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>26</v>
@@ -7332,19 +7332,19 @@
         <v>27337</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>18305</v>
+        <v>18244</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>38072</v>
+        <v>38776</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1493248722872834</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09999124750728607</v>
+        <v>0.09965762633755473</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2079607773307131</v>
+        <v>0.2118087686705002</v>
       </c>
     </row>
     <row r="39">
@@ -7436,19 +7436,19 @@
         <v>53541</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40464</v>
+        <v>40492</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>69098</v>
+        <v>68365</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1491916956068202</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1127520094311218</v>
+        <v>0.1128313365033602</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.192540936933913</v>
+        <v>0.1904981847898751</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -7457,19 +7457,19 @@
         <v>42492</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>31599</v>
+        <v>31836</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>55609</v>
+        <v>56004</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1496991375841376</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.111325561914686</v>
+        <v>0.1121610243650694</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1959115518437962</v>
+        <v>0.1973024169580643</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>88</v>
@@ -7478,19 +7478,19 @@
         <v>96033</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>78343</v>
+        <v>77729</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>115885</v>
+        <v>115354</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1494157981093845</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1218928715016608</v>
+        <v>0.1209381643596645</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1803042153841883</v>
+        <v>0.1794772954362413</v>
       </c>
     </row>
     <row r="41">
@@ -7507,19 +7507,19 @@
         <v>80360</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>64330</v>
+        <v>64325</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>97079</v>
+        <v>96404</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2239219556973058</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.179255957073455</v>
+        <v>0.1792395689453246</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2705104059173707</v>
+        <v>0.268628277969899</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>76</v>
@@ -7528,19 +7528,19 @@
         <v>77729</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>63173</v>
+        <v>63116</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>93112</v>
+        <v>93292</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2738437148608163</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2225622114359751</v>
+        <v>0.2223610884820723</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3280356591592975</v>
+        <v>0.3286704736989906</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>149</v>
@@ -7549,19 +7549,19 @@
         <v>158089</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>136713</v>
+        <v>135520</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>179335</v>
+        <v>179441</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2459689909467366</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.212710053894343</v>
+        <v>0.2108537218278772</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2790243703417345</v>
+        <v>0.2791898687058144</v>
       </c>
     </row>
     <row r="42">
@@ -7578,19 +7578,19 @@
         <v>92562</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>75194</v>
+        <v>75525</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>112542</v>
+        <v>111230</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2579235473399885</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2095276937554018</v>
+        <v>0.2104490576789498</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3135979536200063</v>
+        <v>0.3099414381353867</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>79</v>
@@ -7599,19 +7599,19 @@
         <v>82427</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>68308</v>
+        <v>67042</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>99389</v>
+        <v>98352</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2903939017164763</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2406513547322841</v>
+        <v>0.2361913939277689</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3501523243348583</v>
+        <v>0.346499065068154</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>156</v>
@@ -7620,19 +7620,19 @@
         <v>174989</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>151936</v>
+        <v>152030</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>197975</v>
+        <v>200600</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2722634876685174</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2363949033809511</v>
+        <v>0.2365419426960932</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3080265850133575</v>
+        <v>0.3121100704857762</v>
       </c>
     </row>
     <row r="43">
@@ -7649,19 +7649,19 @@
         <v>56627</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>43361</v>
+        <v>42122</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>71757</v>
+        <v>71940</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.157790324036474</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1208261024028537</v>
+        <v>0.1173736195233149</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1999489539740646</v>
+        <v>0.200458402285208</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -7670,19 +7670,19 @@
         <v>31638</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23524</v>
+        <v>22519</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>43910</v>
+        <v>42949</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1114635126849332</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08287520383090828</v>
+        <v>0.07933503656901233</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1546958055328381</v>
+        <v>0.1513121639593593</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>79</v>
@@ -7691,19 +7691,19 @@
         <v>88265</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>70667</v>
+        <v>72768</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>109071</v>
+        <v>108444</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1373309319802802</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.109949220844232</v>
+        <v>0.1132188339266355</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1697019809896234</v>
+        <v>0.1687256671690201</v>
       </c>
     </row>
     <row r="44">
@@ -7720,19 +7720,19 @@
         <v>75785</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>60532</v>
+        <v>61106</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>92749</v>
+        <v>92833</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2111724773194115</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1686716285312149</v>
+        <v>0.1702697249461262</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2584426198201475</v>
+        <v>0.2586783913107331</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>46</v>
@@ -7741,19 +7741,19 @@
         <v>49559</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>35716</v>
+        <v>37322</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>64097</v>
+        <v>63365</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1745997331536367</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1258273472347618</v>
+        <v>0.1314879983639094</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2258164493381046</v>
+        <v>0.2232383535434062</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>113</v>
@@ -7762,19 +7762,19 @@
         <v>125344</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>106437</v>
+        <v>105183</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>148709</v>
+        <v>147754</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1950207912950813</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1656030195681946</v>
+        <v>0.1636532020833215</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2313733425742244</v>
+        <v>0.2298884260796284</v>
       </c>
     </row>
     <row r="45">
@@ -7866,19 +7866,19 @@
         <v>7924</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3748</v>
+        <v>3886</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>14388</v>
+        <v>15902</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02416435777688518</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01142878027428009</v>
+        <v>0.01184935345135088</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04387873626255158</v>
+        <v>0.04849358625534784</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -7887,19 +7887,19 @@
         <v>13899</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8203</v>
+        <v>7919</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>23079</v>
+        <v>23152</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05859553177717657</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03457986832932066</v>
+        <v>0.03338326728069893</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09729442734686421</v>
+        <v>0.09760056384316039</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>22</v>
@@ -7908,19 +7908,19 @@
         <v>21823</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>13686</v>
+        <v>13856</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>31670</v>
+        <v>31850</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03861670901415109</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02421748634781965</v>
+        <v>0.02451881141177545</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05604107650295512</v>
+        <v>0.05636020232704628</v>
       </c>
     </row>
     <row r="47">
@@ -7937,19 +7937,19 @@
         <v>37583</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>26958</v>
+        <v>26810</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>51855</v>
+        <v>50964</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1146140339404643</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0822118477447606</v>
+        <v>0.08175821503304899</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1581355567482987</v>
+        <v>0.1554200109867805</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>37</v>
@@ -7958,19 +7958,19 @@
         <v>37778</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>26934</v>
+        <v>26736</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>50347</v>
+        <v>49331</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1592634288560106</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1135468443052014</v>
+        <v>0.1127108381405705</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2122479176312697</v>
+        <v>0.207967841617381</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>73</v>
@@ -7979,19 +7979,19 @@
         <v>75362</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>59428</v>
+        <v>60539</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>91374</v>
+        <v>93162</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.133355443624764</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1051604704788129</v>
+        <v>0.1071256818548327</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1616902928204157</v>
+        <v>0.1648529104937258</v>
       </c>
     </row>
     <row r="48">
@@ -8008,19 +8008,19 @@
         <v>98349</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>81403</v>
+        <v>83356</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>116506</v>
+        <v>115249</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2999231627045887</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.248246838295425</v>
+        <v>0.2542014172889283</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3552948758670806</v>
+        <v>0.3514619184916145</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>60</v>
@@ -8029,19 +8029,19 @@
         <v>62050</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>48602</v>
+        <v>50121</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>75937</v>
+        <v>76799</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2615870093816888</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.204891551256265</v>
+        <v>0.2112965679281552</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3201314470539762</v>
+        <v>0.3237647111570502</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>154</v>
@@ -8050,19 +8050,19 @@
         <v>160399</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>136231</v>
+        <v>139700</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>181634</v>
+        <v>182500</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.28383171159974</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.24106639635727</v>
+        <v>0.2472051578957935</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3214080121127745</v>
+        <v>0.322940170663959</v>
       </c>
     </row>
     <row r="49">
@@ -8079,19 +8079,19 @@
         <v>98715</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>82601</v>
+        <v>84102</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>115624</v>
+        <v>114474</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3010388768469555</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2518982761846814</v>
+        <v>0.2564759377324325</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3526057414929312</v>
+        <v>0.3490974947839159</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>78</v>
@@ -8100,19 +8100,19 @@
         <v>81502</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>67077</v>
+        <v>66364</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>96798</v>
+        <v>95935</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3435888768441109</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2827775626763502</v>
+        <v>0.2797731444297926</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4080746203413338</v>
+        <v>0.4044365437854883</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>173</v>
@@ -8121,19 +8121,19 @@
         <v>180216</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>160096</v>
+        <v>158108</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>202403</v>
+        <v>202425</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3188990736877414</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2832956690309384</v>
+        <v>0.2797789372659822</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3581594448276976</v>
+        <v>0.3581985410888084</v>
       </c>
     </row>
     <row r="50">
@@ -8150,19 +8150,19 @@
         <v>85342</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>70676</v>
+        <v>71593</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>102673</v>
+        <v>103915</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2602595687311063</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2155313287061401</v>
+        <v>0.2183278628195089</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3131093038762741</v>
+        <v>0.3168982948422887</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>39</v>
@@ -8171,19 +8171,19 @@
         <v>41977</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>30780</v>
+        <v>30616</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>56329</v>
+        <v>55066</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1769651531410132</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1297582460655814</v>
+        <v>0.1290667251739764</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2374697033251341</v>
+        <v>0.2321417236393118</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>120</v>
@@ -8192,19 +8192,19 @@
         <v>127320</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>109668</v>
+        <v>109381</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>148755</v>
+        <v>148441</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2252970620736035</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.194062021944953</v>
+        <v>0.1935544943837567</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2632283872570503</v>
+        <v>0.2626723704593139</v>
       </c>
     </row>
     <row r="51">
@@ -8296,19 +8296,19 @@
         <v>181453</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>156314</v>
+        <v>158277</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>213107</v>
+        <v>210496</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1281143089330499</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1103652759262319</v>
+        <v>0.1117509877520009</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1504636054651228</v>
+        <v>0.1486198790116132</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>154</v>
@@ -8317,19 +8317,19 @@
         <v>155972</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>134470</v>
+        <v>134517</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>180906</v>
+        <v>179726</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1511384624453284</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1303030155977221</v>
+        <v>0.1303486731341208</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1752998928961585</v>
+        <v>0.1741564262262325</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>319</v>
@@ -8338,19 +8338,19 @@
         <v>337425</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>303503</v>
+        <v>298419</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>373810</v>
+        <v>369866</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1378191347561786</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1239638436379991</v>
+        <v>0.1218873998427261</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.152680180111026</v>
+        <v>0.1510695204631233</v>
       </c>
     </row>
     <row r="53">
@@ -8367,19 +8367,19 @@
         <v>224892</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>197387</v>
+        <v>197804</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>255991</v>
+        <v>253777</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1587839403078326</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1393644584993994</v>
+        <v>0.1396589249419461</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.180741644995669</v>
+        <v>0.1791787082115796</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>187</v>
@@ -8388,19 +8388,19 @@
         <v>188822</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>165072</v>
+        <v>165758</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>215021</v>
+        <v>214513</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1829704497838535</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1599561963641669</v>
+        <v>0.1606207252853838</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2083570341683391</v>
+        <v>0.2078652186189791</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>396</v>
@@ -8409,19 +8409,19 @@
         <v>413714</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>378637</v>
+        <v>377754</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>455692</v>
+        <v>452371</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1689787064958299</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1546520486614432</v>
+        <v>0.1542911343515068</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1861243598451608</v>
+        <v>0.1847679278116919</v>
       </c>
     </row>
     <row r="54">
@@ -8438,19 +8438,19 @@
         <v>362512</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>330068</v>
+        <v>329880</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>398485</v>
+        <v>397903</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2559501661815195</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2330430986586944</v>
+        <v>0.2329104154494386</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2813488515606303</v>
+        <v>0.280938285637594</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>262</v>
@@ -8459,19 +8459,19 @@
         <v>263594</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>236828</v>
+        <v>237315</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>294133</v>
+        <v>291936</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2554249434927726</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2294888871738673</v>
+        <v>0.2299602123354729</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2850174389544781</v>
+        <v>0.2828882880332569</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>602</v>
@@ -8480,19 +8480,19 @@
         <v>626105</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>582556</v>
+        <v>578661</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>671295</v>
+        <v>668965</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2557287815078148</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2379413175080911</v>
+        <v>0.2363506219456906</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2741862371252232</v>
+        <v>0.273234656315072</v>
       </c>
     </row>
     <row r="55">
@@ -8509,19 +8509,19 @@
         <v>296563</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>266245</v>
+        <v>265220</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>330007</v>
+        <v>328249</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2093872875180533</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1879816250648257</v>
+        <v>0.1872577901912385</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2330002802810571</v>
+        <v>0.2317592110070219</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>187</v>
@@ -8530,19 +8530,19 @@
         <v>190538</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>167301</v>
+        <v>165899</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>214981</v>
+        <v>216972</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1846330474943618</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1621160319890174</v>
+        <v>0.1607576460280092</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2083188653349954</v>
+        <v>0.2102476871134535</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>462</v>
@@ -8551,19 +8551,19 @@
         <v>487101</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>449510</v>
+        <v>449225</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>526872</v>
+        <v>529375</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1989532193258945</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1835993832266706</v>
+        <v>0.1834831788909915</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2151973961354663</v>
+        <v>0.2162197121424936</v>
       </c>
     </row>
     <row r="56">
@@ -8580,19 +8580,19 @@
         <v>350918</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>321455</v>
+        <v>319172</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>386719</v>
+        <v>383337</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2477642970595447</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2269621508631427</v>
+        <v>0.2253499709967105</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2730416496171114</v>
+        <v>0.2706538474220149</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>218</v>
@@ -8601,19 +8601,19 @@
         <v>233056</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>204445</v>
+        <v>208251</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>260312</v>
+        <v>263628</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2258330967836837</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1981095525970482</v>
+        <v>0.2017970730440551</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2522445316981143</v>
+        <v>0.2554577745541929</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>546</v>
@@ -8622,19 +8622,19 @@
         <v>583973</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>542715</v>
+        <v>547359</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>625484</v>
+        <v>630830</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2385201579142824</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2216685666999541</v>
+        <v>0.2235653122585222</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2554748250609022</v>
+        <v>0.257658488846857</v>
       </c>
     </row>
     <row r="57">
